--- a/cht_app/forms/app/chw_follow.xlsx
+++ b/cht_app/forms/app/chw_follow.xlsx
@@ -280,7 +280,7 @@
     <t>Has the patient fully recovered following the health facility visit?</t>
   </si>
   <si>
-    <t>selected(../visit, 'yes')</t>
+    <t>selected(../visit, 'Yes')</t>
   </si>
   <si>
     <t>select_one status</t>
@@ -292,7 +292,7 @@
     <t>What is the patient's  current status?</t>
   </si>
   <si>
-    <t>selected(../visit, 'no')</t>
+    <t>selected(../visit, 'No')</t>
   </si>
   <si>
     <t>data</t>
@@ -352,9 +352,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>lmp_approximations</t>
@@ -1003,6 +1003,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1011,9 +1014,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -35430,8 +35430,8 @@
       <c r="A2" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>85</v>
+      <c r="B2" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>111</v>
@@ -35454,17 +35454,17 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
       <c r="U2" s="38"/>
-      <c r="V2" s="40"/>
+      <c r="V2" s="41"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>112</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -35484,17 +35484,17 @@
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
       <c r="U3" s="38"/>
-      <c r="V3" s="40"/>
+      <c r="V3" s="41"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>114</v>
+      <c r="B4" s="43" t="s">
+        <v>113</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>114</v>
+      <c r="C4" s="43" t="s">
+        <v>113</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -35514,17 +35514,17 @@
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
       <c r="U4" s="38"/>
-      <c r="V4" s="40"/>
+      <c r="V4" s="41"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>115</v>
+      <c r="B5" s="43" t="s">
+        <v>114</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>115</v>
+      <c r="C5" s="43" t="s">
+        <v>114</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -35544,10 +35544,10 @@
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
       <c r="U5" s="38"/>
-      <c r="V5" s="40"/>
+      <c r="V5" s="41"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
       <c r="D6" s="38"/>
@@ -35568,10 +35568,10 @@
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
       <c r="U6" s="38"/>
-      <c r="V6" s="40"/>
+      <c r="V6" s="41"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="43"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
       <c r="D7" s="38"/>
@@ -35592,12 +35592,12 @@
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
       <c r="U7" s="38"/>
-      <c r="V7" s="40"/>
+      <c r="V7" s="41"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -35618,9 +35618,9 @@
       <c r="U8" s="46"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
@@ -35641,9 +35641,9 @@
       <c r="U9" s="46"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
@@ -35664,9 +35664,9 @@
       <c r="U10" s="46"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
@@ -37462,7 +37462,7 @@
       <c r="U78" s="46"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="41"/>
+      <c r="A79" s="42"/>
       <c r="B79" s="53"/>
       <c r="C79" s="53"/>
       <c r="D79" s="46"/>
@@ -37485,7 +37485,7 @@
       <c r="U79" s="46"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="41"/>
+      <c r="A80" s="42"/>
       <c r="B80" s="53"/>
       <c r="C80" s="53"/>
       <c r="D80" s="46"/>
@@ -37508,7 +37508,7 @@
       <c r="U80" s="46"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="41"/>
+      <c r="A81" s="42"/>
       <c r="B81" s="53"/>
       <c r="C81" s="53"/>
       <c r="D81" s="46"/>
@@ -37531,7 +37531,7 @@
       <c r="U81" s="46"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="41"/>
+      <c r="A82" s="42"/>
       <c r="B82" s="53"/>
       <c r="C82" s="53"/>
       <c r="D82" s="46"/>
@@ -37554,7 +37554,7 @@
       <c r="U82" s="46"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="41"/>
+      <c r="A83" s="42"/>
       <c r="B83" s="53"/>
       <c r="C83" s="53"/>
       <c r="D83" s="46"/>
@@ -37577,7 +37577,7 @@
       <c r="U83" s="46"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="41"/>
+      <c r="A84" s="42"/>
       <c r="B84" s="53"/>
       <c r="C84" s="53"/>
       <c r="D84" s="46"/>
@@ -44919,25 +44919,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="C1" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="D1" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="E1" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="F1" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="G1" s="55" t="s">
         <v>121</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>122</v>
       </c>
       <c r="H1" s="54"/>
       <c r="I1" s="54"/>
@@ -44961,24 +44961,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="58">
         <f>NOW()</f>
-        <v>45125.07043</v>
+        <v>45137.97591</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="59" t="s">
         <v>93</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
@@ -46068,960 +46068,960 @@
       <c r="W1" s="39"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="40" t="s">
-        <v>113</v>
+      <c r="C32" s="41" t="s">
+        <v>112</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="68" t="s">
